--- a/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,29</t>
+          <t>-1,2; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,62</t>
+          <t>-2,87; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,32</t>
+          <t>3,51; 10,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,88</t>
+          <t>-0,9; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,14</t>
+          <t>-3,4; 3,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,54</t>
+          <t>0,19; 7,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,15</t>
+          <t>-0,0; 5,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,4</t>
+          <t>-2,05; 2,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,91</t>
+          <t>2,94; 8,07</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>152,11%</t>
+          <t>154,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,49%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>113,58%</t>
+          <t>115,16%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 154,01</t>
+          <t>-23,95; 188,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 86,89</t>
+          <t>-48,47; 96,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,0; 331,36</t>
+          <t>55,45; 323,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 207,99</t>
+          <t>-17,67; 215,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 110,98</t>
+          <t>-48,33; 114,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 217,51</t>
+          <t>0,2; 212,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 129,78</t>
+          <t>-2,09; 140,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 67,87</t>
+          <t>-34,61; 65,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,69; 209,62</t>
+          <t>43,04; 212,66</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,2</t>
+          <t>-2,48; 5,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,38</t>
+          <t>-3,76; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,62</t>
+          <t>0,48; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,66</t>
+          <t>-2,16; 5,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,86</t>
+          <t>-3,88; 3,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,2</t>
+          <t>-0,07; 7,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,28</t>
+          <t>-1,1; 4,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,45</t>
+          <t>-2,52; 2,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,28</t>
+          <t>1,3; 6,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>66,62%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 146,75</t>
+          <t>-37,07; 135,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 96,77</t>
+          <t>-52,53; 85,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 187,85</t>
+          <t>2,96; 221,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 151,05</t>
+          <t>-29,45; 132,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 68,46</t>
+          <t>-52,63; 74,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 187,41</t>
+          <t>-3,42; 175,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 99,72</t>
+          <t>-20,0; 86,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 57,23</t>
+          <t>-37,26; 50,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 144,77</t>
+          <t>16,33; 147,19</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,64</t>
+          <t>2,15; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,49</t>
+          <t>-1,76; 4,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 11,06</t>
+          <t>-3,76; 10,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 5,01</t>
+          <t>-6,6; 5,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,17</t>
+          <t>-8,75; 4,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 11,65</t>
+          <t>-2,51; 11,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,91</t>
+          <t>0,97; 6,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,61</t>
+          <t>-2,7; 3,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 9,34</t>
+          <t>-3,13; 9,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>58,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>52,08%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,42; 170,61</t>
+          <t>27,19; 185,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 93,49</t>
+          <t>-23,51; 85,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,01; 182,18</t>
+          <t>-51,07; 175,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 79,01</t>
+          <t>-47,46; 86,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 90,68</t>
+          <t>-66,18; 64,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 163,58</t>
+          <t>-20,7; 163,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,79; 123,8</t>
+          <t>10,12; 116,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 62,11</t>
+          <t>-28,36; 57,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 135,82</t>
+          <t>-37,65; 141,13</t>
         </is>
       </c>
     </row>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1300,27 +1300,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,02</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>14,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,78</t>
+          <t>0,4; 5,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,6</t>
+          <t>-2,82; 1,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,3</t>
+          <t>3,89; 9,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,08</t>
+          <t>1,33; 7,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,79</t>
+          <t>-2,28; 3,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 55,43</t>
+          <t>2,64; 57,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,8</t>
+          <t>1,81; 5,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,92</t>
+          <t>-1,61; 1,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 39,22</t>
+          <t>4,76; 35,87</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1406,27 +1406,27 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>272,29%</t>
+          <t>273,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>176,22%</t>
+          <t>176,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 82,3</t>
+          <t>5,02; 78,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 22,92</t>
+          <t>-30,39; 20,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,93; 135,21</t>
+          <t>41,9; 127,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,47; 126,78</t>
+          <t>13,57; 119,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 59,25</t>
+          <t>-24,57; 60,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,84; 866,53</t>
+          <t>29,94; 927,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,39; 80,78</t>
+          <t>20,77; 78,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 26,63</t>
+          <t>-18,55; 23,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,25; 500,62</t>
+          <t>57,55; 500,14</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>8,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,14</t>
+          <t>-3,45; 4,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,22</t>
+          <t>-3,24; 4,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,21; 16,82</t>
+          <t>7,54; 17,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,78</t>
+          <t>2,22; 9,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,99</t>
+          <t>-0,83; 6,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,57</t>
+          <t>2,66; 10,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,0</t>
+          <t>0,74; 6,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,02</t>
+          <t>-0,89; 4,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,63</t>
+          <t>5,27; 12,04</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>145,11%</t>
+          <t>148,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>105,04%</t>
+          <t>106,81%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 68,67</t>
+          <t>-33,02; 70,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 73,71</t>
+          <t>-31,4; 75,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>63,2; 278,24</t>
+          <t>65,74; 287,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,05; 123,59</t>
+          <t>18,36; 135,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 86,05</t>
+          <t>-8,08; 96,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,06; 155,22</t>
+          <t>31,29; 149,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,52; 83,39</t>
+          <t>4,19; 82,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 57,09</t>
+          <t>-9,61; 59,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>53,49; 164,8</t>
+          <t>55,33; 169,87</t>
         </is>
       </c>
     </row>
@@ -1712,27 +1712,27 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 8,05</t>
+          <t>-0,43; 8,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,56</t>
+          <t>-1,75; 5,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,66</t>
+          <t>-2,97; 6,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,14</t>
+          <t>-0,24; 4,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,94</t>
+          <t>-2,07; 2,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 13,04</t>
+          <t>7,26; 12,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,62</t>
+          <t>0,43; 4,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,74</t>
+          <t>-1,42; 2,81</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,13</t>
+          <t>5,17; 10,26</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>110,67%</t>
+          <t>110,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 247,51</t>
+          <t>-14,74; 267,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 182,59</t>
+          <t>-31,54; 189,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 201,52</t>
+          <t>-52,37; 190,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,6; 64,46</t>
+          <t>-2,24; 61,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 38,03</t>
+          <t>-21,71; 37,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>70,96; 170,11</t>
+          <t>70,84; 162,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,95; 66,8</t>
+          <t>4,71; 64,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 36,08</t>
+          <t>-16,21; 39,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>56,19; 141,62</t>
+          <t>57,22; 144,27</t>
         </is>
       </c>
     </row>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,28</t>
+          <t>1,49; 4,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,62</t>
+          <t>-0,85; 1,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,84</t>
+          <t>3,05; 7,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,04</t>
+          <t>1,89; 4,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,04</t>
+          <t>-0,74; 1,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,16; 26,82</t>
+          <t>5,28; 26,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,24</t>
+          <t>2,12; 4,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,36</t>
+          <t>-0,4; 1,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,45; 18,5</t>
+          <t>5,43; 16,29</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>132,58%</t>
+          <t>133,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>114,44%</t>
+          <t>115,14%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>20,62; 70,55</t>
+          <t>20,24; 70,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 26,78</t>
+          <t>-12,07; 27,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>46,25; 128,37</t>
+          <t>48,56; 130,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>23,32; 68,59</t>
+          <t>21,52; 67,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 26,97</t>
+          <t>-8,2; 26,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,37; 354,03</t>
+          <t>63,66; 338,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>29,05; 61,66</t>
+          <t>26,58; 60,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 19,56</t>
+          <t>-5,4; 20,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,58; 252,84</t>
+          <t>72,23; 221,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
